--- a/App_Templates/ErectionDocumentTemplate_YNR.xlsx
+++ b/App_Templates/ErectionDocumentTemplate_YNR.xlsx
@@ -4,21 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18060" windowHeight="9090" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="3360"/>
   </bookViews>
   <sheets>
-    <sheet name="Released or Modified Document Y" sheetId="2" r:id="rId1"/>
-    <sheet name="Released Document List Y" sheetId="1" r:id="rId2"/>
+    <sheet name="Released and modified list" sheetId="2" r:id="rId1"/>
+    <sheet name="Total document list" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
-  <si>
-    <t>PROJECT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>ELEMENT</t>
   </si>
@@ -53,9 +50,6 @@
     <t>AS ON</t>
   </si>
   <si>
-    <t>WITH IN LAST</t>
-  </si>
-  <si>
     <t>DAYS</t>
   </si>
   <si>
@@ -65,16 +59,34 @@
     <t>DOCUMENT LIST</t>
   </si>
   <si>
-    <t>Transmittal ID</t>
-  </si>
-  <si>
     <t>SHOP</t>
   </si>
   <si>
     <t>Issue Date</t>
   </si>
   <si>
-    <t>Transmittal Type</t>
+    <t>PROJECT ID</t>
+  </si>
+  <si>
+    <t>IN LAST</t>
+  </si>
+  <si>
+    <t>Issued To</t>
+  </si>
+  <si>
+    <t>Drawing/Document Information</t>
+  </si>
+  <si>
+    <t>Transmittal Information</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>DOCUMENT ID</t>
   </si>
 </sst>
 </file>
@@ -122,20 +134,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFF00"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +173,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -185,12 +210,124 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -200,12 +337,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -215,9 +348,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -233,28 +364,35 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -263,39 +401,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -312,26 +418,37 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -347,20 +464,104 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -371,64 +572,119 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,6 +705,126 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>51720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10525126" y="333375"/>
+          <a:ext cx="1009650" cy="518445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10363201" y="257175"/>
+          <a:ext cx="895349" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -738,312 +1114,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="41"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
-    </row>
-    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="B4" s="41"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="21" t="s">
+      <c r="J7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:13" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="J6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
-    </row>
-    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="21" t="s">
+      <c r="M6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>